--- a/user study2/Task2 result score.xlsx
+++ b/user study2/Task2 result score.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
   <si>
     <t>Q2</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>p1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>3</t>
@@ -396,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,12 +438,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -579,12 +570,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -598,12 +583,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,10 +755,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -788,85 +767,85 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1221,10 +1200,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="4" width="9" style="1"/>
     <col min="5" max="7" width="9" style="2"/>
@@ -1301,7 +1280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="99.75" spans="1:11">
+    <row r="3" ht="96.6" spans="1:11">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -1309,416 +1288,416 @@
         <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="11" t="s">
+    </row>
+    <row r="4" ht="41.4" spans="1:11">
+      <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" ht="42.75" spans="1:11">
-      <c r="A4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="5" ht="82.8" spans="1:11">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>24</v>
+      <c r="J5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" ht="85.5" spans="1:11">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="6" ht="55.2" spans="1:11">
+      <c r="A6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" ht="69" spans="1:11">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="55.2" spans="1:11">
+      <c r="A8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" ht="55.2" spans="1:11">
+      <c r="A9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>24</v>
+      <c r="E9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" ht="57" spans="1:11">
-      <c r="A6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="10" ht="69" spans="1:11">
+      <c r="A10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" ht="69" spans="1:11">
+      <c r="A11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="55.2" spans="1:11">
+      <c r="A12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="F12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" ht="82.8" spans="1:11">
+      <c r="A13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="55.2" spans="1:11">
+      <c r="A14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" ht="71.25" spans="1:11">
-      <c r="A7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" ht="57" spans="1:11">
-      <c r="A8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" ht="57" spans="1:11">
-      <c r="A9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" ht="71.25" spans="1:11">
-      <c r="A10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" ht="71.25" spans="1:11">
-      <c r="A11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="57" spans="1:11">
-      <c r="A12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" ht="85.5" spans="1:11">
-      <c r="A13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" ht="57" spans="1:11">
-      <c r="A14" s="8" t="s">
+      <c r="F14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
